--- a/biology/Botanique/Ptelea_(hamadryade)/Ptelea_(hamadryade).xlsx
+++ b/biology/Botanique/Ptelea_(hamadryade)/Ptelea_(hamadryade).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ptelea (Πτελεα) est une hamadryade. C'est-à-dire à la fois une dryade et une nymphe. Dans la mythologie grecque, elles[Qui ?] sont au nombre de huit. Ce sont les filles de l'esprit de la forêt Oxylos (de la forêt) et d'hamadryas (avec l'arbre) qui habitaient le mont Œta, en Phthiotide. Elles envoutaient les humains et non-humains d'un regard.
 Chaque nymphe préside un type particulier d'arbre :
